--- a/data_year/zb/文化/少年儿童读物类图书和课本出版情况.xlsx
+++ b/data_year/zb/文化/少年儿童读物类图书和课本出版情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635341</v>
+        <v>1876864</v>
       </c>
       <c r="C2" t="n">
-        <v>16890</v>
+        <v>35781</v>
       </c>
       <c r="D2" t="n">
-        <v>7004</v>
+        <v>19794</v>
       </c>
       <c r="E2" t="n">
-        <v>19464771</v>
+        <v>27037727</v>
       </c>
       <c r="F2" t="n">
-        <v>355988</v>
+        <v>335452</v>
       </c>
       <c r="G2" t="n">
-        <v>23694</v>
+        <v>68145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>757450</v>
+        <v>2138117</v>
       </c>
       <c r="C3" t="n">
-        <v>22875</v>
+        <v>37800</v>
       </c>
       <c r="D3" t="n">
-        <v>7254</v>
+        <v>22059</v>
       </c>
       <c r="E3" t="n">
-        <v>19544188</v>
+        <v>27294304</v>
       </c>
       <c r="F3" t="n">
-        <v>333633</v>
+        <v>343991</v>
       </c>
       <c r="G3" t="n">
-        <v>24236</v>
+        <v>78281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694849</v>
+        <v>2853998</v>
       </c>
       <c r="C4" t="n">
-        <v>23042</v>
+        <v>47702</v>
       </c>
       <c r="D4" t="n">
-        <v>7393</v>
+        <v>30965</v>
       </c>
       <c r="E4" t="n">
-        <v>21780889</v>
+        <v>27078790</v>
       </c>
       <c r="F4" t="n">
-        <v>355222</v>
+        <v>347458</v>
       </c>
       <c r="G4" t="n">
-        <v>25817</v>
+        <v>81271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>713282</v>
+        <v>2815938</v>
       </c>
       <c r="C5" t="n">
-        <v>19895</v>
+        <v>45686</v>
       </c>
       <c r="D5" t="n">
-        <v>7588</v>
+        <v>32400</v>
       </c>
       <c r="E5" t="n">
-        <v>20922860</v>
+        <v>26902976</v>
       </c>
       <c r="F5" t="n">
-        <v>325380</v>
+        <v>345002</v>
       </c>
       <c r="G5" t="n">
-        <v>28789</v>
+        <v>87509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685139</v>
+        <v>3091760</v>
       </c>
       <c r="C6" t="n">
-        <v>17992</v>
+        <v>49693</v>
       </c>
       <c r="D6" t="n">
-        <v>7989</v>
+        <v>32712</v>
       </c>
       <c r="E6" t="n">
-        <v>21981123</v>
+        <v>27398531</v>
       </c>
       <c r="F6" t="n">
-        <v>327141</v>
+        <v>349949</v>
       </c>
       <c r="G6" t="n">
-        <v>36087</v>
+        <v>92370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955545</v>
+        <v>3387086</v>
       </c>
       <c r="C7" t="n">
-        <v>22926</v>
+        <v>55564</v>
       </c>
       <c r="D7" t="n">
-        <v>9583</v>
+        <v>36633</v>
       </c>
       <c r="E7" t="n">
-        <v>25393488</v>
+        <v>26308698</v>
       </c>
       <c r="F7" t="n">
-        <v>352949</v>
+        <v>331931</v>
       </c>
       <c r="G7" t="n">
-        <v>50028</v>
+        <v>90718</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972961</v>
+        <v>4528085</v>
       </c>
       <c r="C8" t="n">
-        <v>19975</v>
+        <v>77789</v>
       </c>
       <c r="D8" t="n">
-        <v>9376</v>
+        <v>43639</v>
       </c>
       <c r="E8" t="n">
-        <v>25572776</v>
+        <v>26250786</v>
       </c>
       <c r="F8" t="n">
-        <v>350743</v>
+        <v>327691</v>
       </c>
       <c r="G8" t="n">
-        <v>51925</v>
+        <v>89001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1153509</v>
+        <v>4883681</v>
       </c>
       <c r="C9" t="n">
-        <v>24445</v>
+        <v>82007</v>
       </c>
       <c r="D9" t="n">
-        <v>10460</v>
+        <v>42441</v>
       </c>
       <c r="E9" t="n">
-        <v>23594404</v>
+        <v>25818117</v>
       </c>
       <c r="F9" t="n">
-        <v>332428</v>
+        <v>325612</v>
       </c>
       <c r="G9" t="n">
-        <v>53997</v>
+        <v>86591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1519546</v>
+        <v>5412232</v>
       </c>
       <c r="C10" t="n">
-        <v>33315</v>
+        <v>88858</v>
       </c>
       <c r="D10" t="n">
-        <v>13522</v>
+        <v>44196</v>
       </c>
       <c r="E10" t="n">
-        <v>25803172</v>
+        <v>27458388</v>
       </c>
       <c r="F10" t="n">
-        <v>330218</v>
+        <v>348116</v>
       </c>
       <c r="G10" t="n">
-        <v>55853</v>
+        <v>82862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483746</v>
+        <v>5704316</v>
       </c>
       <c r="C11" t="n">
-        <v>28445</v>
+        <v>94555</v>
       </c>
       <c r="D11" t="n">
-        <v>15591</v>
+        <v>43712</v>
       </c>
       <c r="E11" t="n">
-        <v>25276621</v>
+        <v>29404923</v>
       </c>
       <c r="F11" t="n">
-        <v>323531</v>
+        <v>375190</v>
       </c>
       <c r="G11" t="n">
-        <v>62024</v>
+        <v>87173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1876864</v>
+        <v>5023408</v>
       </c>
       <c r="C12" t="n">
-        <v>35781</v>
+        <v>90432</v>
       </c>
       <c r="D12" t="n">
-        <v>19794</v>
+        <v>42517</v>
       </c>
       <c r="E12" t="n">
-        <v>27037727</v>
+        <v>29321614</v>
       </c>
       <c r="F12" t="n">
-        <v>335452</v>
+        <v>379061</v>
       </c>
       <c r="G12" t="n">
-        <v>68145</v>
+        <v>84809</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2138117</v>
+        <v>5592253</v>
       </c>
       <c r="C13" t="n">
-        <v>37800</v>
+        <v>96994</v>
       </c>
       <c r="D13" t="n">
-        <v>22059</v>
+        <v>46322</v>
       </c>
       <c r="E13" t="n">
-        <v>27294304</v>
+        <v>33587497</v>
       </c>
       <c r="F13" t="n">
-        <v>343991</v>
+        <v>432063</v>
       </c>
       <c r="G13" t="n">
-        <v>78281</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2853998</v>
-      </c>
-      <c r="C14" t="n">
-        <v>47702</v>
-      </c>
-      <c r="D14" t="n">
-        <v>30965</v>
-      </c>
-      <c r="E14" t="n">
-        <v>27078790</v>
-      </c>
-      <c r="F14" t="n">
-        <v>347458</v>
-      </c>
-      <c r="G14" t="n">
-        <v>81271</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2815938</v>
-      </c>
-      <c r="C15" t="n">
-        <v>45686</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32400</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26902976</v>
-      </c>
-      <c r="F15" t="n">
-        <v>345002</v>
-      </c>
-      <c r="G15" t="n">
-        <v>87509</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3091760</v>
-      </c>
-      <c r="C16" t="n">
-        <v>49693</v>
-      </c>
-      <c r="D16" t="n">
-        <v>32712</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27398531</v>
-      </c>
-      <c r="F16" t="n">
-        <v>349949</v>
-      </c>
-      <c r="G16" t="n">
-        <v>92370</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3387086</v>
-      </c>
-      <c r="C17" t="n">
-        <v>55564</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36633</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26308698</v>
-      </c>
-      <c r="F17" t="n">
-        <v>331931</v>
-      </c>
-      <c r="G17" t="n">
-        <v>90718</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4528085</v>
-      </c>
-      <c r="C18" t="n">
-        <v>77789</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43639</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26250786</v>
-      </c>
-      <c r="F18" t="n">
-        <v>327691</v>
-      </c>
-      <c r="G18" t="n">
-        <v>89001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4883681</v>
-      </c>
-      <c r="C19" t="n">
-        <v>82007</v>
-      </c>
-      <c r="D19" t="n">
-        <v>42441</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25818117</v>
-      </c>
-      <c r="F19" t="n">
-        <v>325612</v>
-      </c>
-      <c r="G19" t="n">
-        <v>86591</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5412232</v>
-      </c>
-      <c r="C20" t="n">
-        <v>88858</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44196</v>
-      </c>
-      <c r="E20" t="n">
-        <v>27458388</v>
-      </c>
-      <c r="F20" t="n">
-        <v>348116</v>
-      </c>
-      <c r="G20" t="n">
-        <v>82862</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5704316</v>
-      </c>
-      <c r="C21" t="n">
-        <v>94555</v>
-      </c>
-      <c r="D21" t="n">
-        <v>43712</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29404923</v>
-      </c>
-      <c r="F21" t="n">
-        <v>375190</v>
-      </c>
-      <c r="G21" t="n">
-        <v>87173</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5023408</v>
-      </c>
-      <c r="C22" t="n">
-        <v>90432</v>
-      </c>
-      <c r="D22" t="n">
-        <v>42517</v>
-      </c>
-      <c r="E22" t="n">
-        <v>29321614</v>
-      </c>
-      <c r="F22" t="n">
-        <v>379061</v>
-      </c>
-      <c r="G22" t="n">
-        <v>84809</v>
+        <v>90143</v>
       </c>
     </row>
   </sheetData>
